--- a/doc/Server_Requirements.xlsx
+++ b/doc/Server_Requirements.xlsx
@@ -1,33 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indhu\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FFDD3B-FDBA-4C83-9506-842364A10691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
-  <si>
-    <t>Req. ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>Requirement ID</t>
   </si>
   <si>
     <t>Component</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>RWS00001</t>
   </si>
   <si>
@@ -103,95 +100,161 @@
     <t>RWS00025</t>
   </si>
   <si>
-    <t>Function name should be web_server().</t>
-  </si>
-  <si>
-    <t>Function should have an argument for port_no.</t>
-  </si>
-  <si>
-    <t>Function should initiate the server connection with the specified port_no and wait to accept connections from the client.</t>
-  </si>
-  <si>
-    <t>When receiving data from the client, verify whether it is a valid JSON object. If invalid, return a JSON response with 'status': 'INVALID_ARGUMENT' and 'error': 'Invalid JSON format'.</t>
-  </si>
-  <si>
-    <t>JSON request must have the following fields:
-- request_id (auto-generated if not provided)
-- service_name
-- sub_json
-- request_type
-- mail_id (if request_type is 'MAIL')
-- phone_no (if request_type is 'SMS')</t>
-  </si>
-  <si>
-    <t>Response JSON must contain:
-- status: 'SUCCESS', 'ERROR', or 'IN_PROGRESS'
-- error_reason: 'NONE', 'FUNCTION_NOT_FOUND', 'FUNCTION_EXECUTION_ERROR', 'INVALID_ARGUMENT'
-- data: JSON object returned from the requested service.</t>
-  </si>
-  <si>
-    <t>If request_type is 'INLINE', call the function specified in service_name using the extracted sub_json as input and return the response immediately.</t>
-  </si>
-  <si>
-    <t>Before processing a request, verify whether a result already exists for the given request_id. If a response exists and is not 'IN_PROGRESS', return the stored response instead of re-executing the function.</t>
-  </si>
-  <si>
-    <t>If request_type is 'FUTURE_CALL', 'MAIL', or 'SMS', create a new thread for the request_id to call the function specified in service_name. The thread should execute the function asynchronously.</t>
-  </si>
-  <si>
-    <t>The function to be called is determined by extracting service_name from the JSON request and mapping it to preloaded functions from external folders.</t>
-  </si>
-  <si>
-    <t>The thread created for request_id should call the function extracted from service_name and store the response.</t>
-  </si>
-  <si>
-    <t>When the thread receives a JSON response from the function, it should store the response for future retrieval if the request_type is 'FUTURE_CALL'.</t>
-  </si>
-  <si>
-    <t>The /check_status/&lt;request_id&gt; endpoint should return the stored response for a FUTURE_CALL request if it has completed execution.</t>
-  </si>
-  <si>
-    <t>If the thread has finished its task, prepare the response JSON by attaching the function’s returned JSON data to data.</t>
-  </si>
-  <si>
-    <t>If request_type is 'MAIL' or 'SMS', send the response to the specified mail_id or phone_no using the configured email or SMS provider.</t>
-  </si>
-  <si>
-    <t>All processing statuses and error messages should be recorded in 'RWS_log.txt' with timestamps and request IDs.</t>
-  </si>
-  <si>
-    <t>The server should preload functions from external Python files listed in external_paths.txt and store them in a function map.</t>
-  </si>
-  <si>
-    <t>When preloading functions, only callable functions that do not start with an underscore (_) should be included.</t>
-  </si>
-  <si>
-    <t>A function execution request should be logged, including service_name, request_id, and parameters.</t>
-  </si>
-  <si>
-    <t>Thread safety should be maintained using a threading lock when accessing shared resources such as request results and active threads.</t>
-  </si>
-  <si>
-    <t>When an invalid service_name is requested, return a JSON response with 'status': 'ERROR' and 'error_reason': 'FUNCTION_NOT_FOUND'.</t>
-  </si>
-  <si>
-    <t>Responses should be structured consistently across all request types, maintaining the same JSON format.</t>
-  </si>
-  <si>
-    <t>If an exception occurs while executing a function, log the error and return 'status': 'ERROR' with 'error_reason': 'FUNCTION_EXECUTION_ERROR'.</t>
-  </si>
-  <si>
-    <t>The Flask app should run with debug=True only during development; in production, debug should be set to False.</t>
-  </si>
-  <si>
-    <t>The server should dynamically read external function directories from external_paths.txt and validate each path before loading modules.</t>
+    <t>Function Name</t>
+  </si>
+  <si>
+    <t>Function Argument</t>
+  </si>
+  <si>
+    <t>Server Initialization</t>
+  </si>
+  <si>
+    <t>JSON Validation</t>
+  </si>
+  <si>
+    <t>Request Fields</t>
+  </si>
+  <si>
+    <t>Response Structure</t>
+  </si>
+  <si>
+    <t>INLINE Request Processing</t>
+  </si>
+  <si>
+    <t>Result Caching</t>
+  </si>
+  <si>
+    <t>Asynchronous Execution</t>
+  </si>
+  <si>
+    <t>Function Mapping</t>
+  </si>
+  <si>
+    <t>Thread Execution</t>
+  </si>
+  <si>
+    <t>FUTURE_CALL Result Storage</t>
+  </si>
+  <si>
+    <t>Check Status Endpoint</t>
+  </si>
+  <si>
+    <t>Response Handling</t>
+  </si>
+  <si>
+    <t>MAIL &amp; SMS Handling</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>Function Preloading</t>
+  </si>
+  <si>
+    <t>Function Filtering</t>
+  </si>
+  <si>
+    <t>Execution Logging</t>
+  </si>
+  <si>
+    <t>Thread Safety</t>
+  </si>
+  <si>
+    <t>Invalid Function Handling</t>
+  </si>
+  <si>
+    <t>Response Consistency</t>
+  </si>
+  <si>
+    <t>Function Execution Errors</t>
+  </si>
+  <si>
+    <t>Debug Mode</t>
+  </si>
+  <si>
+    <t>Dynamic Folder Loading</t>
+  </si>
+  <si>
+    <t>The main function should be named `web_server()`.</t>
+  </si>
+  <si>
+    <t>The function should accept `port_no` as an argument to specify the server port.</t>
+  </si>
+  <si>
+    <t>The function should start the Flask web server on `port_no` and wait for client connections.</t>
+  </si>
+  <si>
+    <t>Requests must be valid JSON objects. If invalid, return {'status': 'INVALID_ARGUMENT', 'error': 'Invalid JSON format'}.</t>
+  </si>
+  <si>
+    <t>JSON requests must include: `request_id` (auto-generated if missing), `service_name`, `sub_json`, `request_type`. If `request_type` is 'MAIL' or 'SMS', `mail_id` or `phone_no` must be provided.</t>
+  </si>
+  <si>
+    <t>Responses must include: `status` (SUCCESS, ERROR, IN_PROGRESS), `error_reason` (NONE, FUNCTION_NOT_FOUND, FUNCTION_EXECUTION_ERROR, INVALID_ARGUMENT), and `data` (JSON result from function execution).</t>
+  </si>
+  <si>
+    <t>If `request_type` is `INLINE`, execute the function immediately with `sub_json` as input and return the response.</t>
+  </si>
+  <si>
+    <t>Before executing a request, check if a result already exists for `request_id`. If a completed response exists, return it instead of re-executing.</t>
+  </si>
+  <si>
+    <t>For `FUTURE_CALL`, `MAIL`, or `SMS`, create a new thread to execute the requested function asynchronously.</t>
+  </si>
+  <si>
+    <t>Functions are dynamically loaded from external folders. Only callable functions that do not start with `_` should be included.</t>
+  </si>
+  <si>
+    <t>Each request thread should execute the function and store the result upon completion.</t>
+  </si>
+  <si>
+    <t>If `request_type` is `FUTURE_CALL`, store the function result for future retrieval.</t>
+  </si>
+  <si>
+    <t>The `/check_status/&lt;request_id&gt;` endpoint should return the stored result for completed `FUTURE_CALL` requests.</t>
+  </si>
+  <si>
+    <t>Once the thread completes, attach the function’s returned JSON data to the response.</t>
+  </si>
+  <si>
+    <t>If `request_type` is `MAIL` or `SMS`, send the response to the provided `mail_id` or `phone_no` via the configured provider.</t>
+  </si>
+  <si>
+    <t>All request statuses and errors should be logged in `RWS_log_&lt;port_no&gt;.txt` with timestamps and request IDs.</t>
+  </si>
+  <si>
+    <t>The server should preload functions from external Python files specified in a configuration file.</t>
+  </si>
+  <si>
+    <t>Only callable functions without `_` prefixes should be loaded from external modules.</t>
+  </si>
+  <si>
+    <t>Log each function execution, including `service_name`, `request_id`, and `sub_json` parameters.</t>
+  </si>
+  <si>
+    <t>Use a threading lock to ensure safe access to shared resources like request results and active threads.</t>
+  </si>
+  <si>
+    <t>If `service_name` does not exist, return {'status': 'ERROR', 'error_reason': 'FUNCTION_NOT_FOUND'}.</t>
+  </si>
+  <si>
+    <t>Ensure all responses follow the same JSON format across all request types.</t>
+  </si>
+  <si>
+    <t>If an exception occurs while executing a function, log the error and return {'status': 'ERROR', 'error_reason': 'FUNCTION_EXECUTION_ERROR'}.</t>
+  </si>
+  <si>
+    <t>Set `debug=True` during development and `debug=False` in production.</t>
+  </si>
+  <si>
+    <t>Dynamically read external function directories from the config file, validate paths, and load modules.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,21 +317,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -306,7 +361,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -340,7 +395,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -375,10 +429,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -551,225 +604,297 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="205.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
